--- a/medicine/Sexualité et sexologie/Liste_des_films_Roman_Porno/Liste_des_films_Roman_Porno.xlsx
+++ b/medicine/Sexualité et sexologie/Liste_des_films_Roman_Porno/Liste_des_films_Roman_Porno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La société Nikkatsu a désigné sous l'appellation de Roman Porno (abréviation de « romance pornographique ») l'ensemble des pinku eiga ou films roses ou encore films érotiques que ses studios ont produits et commercialisés de novembre 1971 à mai 1988. Ces films, extrêmement connus et appréciés ont connu un important succès financier et ont remporté de nombreux prix ou distinctions. Suit la liste complète de ces productions dont beaucoup sont encore diffusées.
 Les films sont classés dans l'ordre de leur parution. Le nom du réalisateur ainsi que celui des acteurs sont mentionnés lorsqu'ils sont connus. Les Note livrent des renseignements sur les réalisateurs et les acteurs ainsi qu'un court résumé de l'intrigue.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,6 +581,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -591,6 +609,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -617,6 +637,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -643,6 +665,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -669,6 +693,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -695,6 +721,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -721,6 +749,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -747,6 +777,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -773,6 +805,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -799,6 +833,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -825,6 +861,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -851,6 +889,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -877,6 +917,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -903,6 +945,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -929,6 +973,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -955,6 +1001,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
